--- a/中国鸟类名录v4.0.xlsx
+++ b/中国鸟类名录v4.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="v4.0" sheetId="1" r:id="rId1"/>
